--- a/Income/SPGI_inc.xlsx
+++ b/Income/SPGI_inc.xlsx
@@ -1981,16 +1981,16 @@
         <v>0.6915</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>0.699</v>
+        <v>0.694</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>0.7052</v>
+        <v>0.7</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>0.7055</v>
+        <v>0.7002</v>
       </c>
       <c r="G15" s="0" t="n">
-        <v>0.7106</v>
+        <v>0.705</v>
       </c>
       <c r="H15" s="0" t="n">
         <v>0.6952</v>
@@ -2483,7 +2483,7 @@
         </is>
       </c>
       <c r="B19" s="0" t="n">
-        <v>0.4658</v>
+        <v>0.4656</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>0.4691</v>
@@ -4042,16 +4042,16 @@
         <v>0.5365</v>
       </c>
       <c r="D30" s="0" t="n">
-        <v>0.5458</v>
+        <v>0.5443</v>
       </c>
       <c r="E30" s="0" t="n">
-        <v>0.5514</v>
+        <v>0.5498</v>
       </c>
       <c r="F30" s="0" t="n">
-        <v>0.5278</v>
+        <v>0.5262</v>
       </c>
       <c r="G30" s="0" t="n">
-        <v>0.5137</v>
+        <v>0.512</v>
       </c>
       <c r="H30" s="0" t="n">
         <v>0.5108</v>
